--- a/file/Tableau_de_synthèse_BTS_SIO_SISR_20232024_SAIDOMAR_Mourad.xlsx
+++ b/file/Tableau_de_synthèse_BTS_SIO_SISR_20232024_SAIDOMAR_Mourad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Portfolio\portfolio\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF66F2C7-E099-4DA5-B685-2D854111AECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BABB52-BBAF-445B-829F-CD97CBD1D19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,9 +86,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>▢ SISR</t>
-  </si>
-  <si>
     <t>▢ SLAM</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Adresse URL du portfolio : https://mourad-saidomar.github.io/portfolio/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SISR</t>
   </si>
 </sst>
 </file>
@@ -653,6 +653,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,12 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,79 +743,52 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>153940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>307880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>336744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CC742E-9766-2D87-135D-071E953D26AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10766137" y="1693334"/>
+          <a:ext cx="153940" cy="153940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1105,14 +1078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="99" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="99" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1125,84 +1098,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="A5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1224,8 +1197,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1281,16 +1254,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="A8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1329,10 +1302,10 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -1378,10 +1351,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1427,10 +1400,10 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1476,10 +1449,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="14"/>
@@ -1525,10 +1498,10 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1574,10 +1547,10 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1623,10 +1596,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="14"/>
@@ -1671,16 +1644,16 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="A16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1719,9 +1692,9 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="42">
+        <v>30</v>
+      </c>
+      <c r="B17" s="20">
         <v>45078</v>
       </c>
       <c r="C17" s="17"/>
@@ -1768,9 +1741,9 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="42">
+        <v>31</v>
+      </c>
+      <c r="B18" s="20">
         <v>45078</v>
       </c>
       <c r="C18" s="17"/>
@@ -1817,9 +1790,9 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="42">
+        <v>34</v>
+      </c>
+      <c r="B19" s="20">
         <v>45078</v>
       </c>
       <c r="C19" s="17"/>
@@ -1866,9 +1839,9 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="42">
+        <v>35</v>
+      </c>
+      <c r="B20" s="20">
         <v>45078</v>
       </c>
       <c r="C20" s="14"/>
@@ -1914,16 +1887,16 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
+      <c r="A21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1962,9 +1935,9 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="42">
+        <v>30</v>
+      </c>
+      <c r="B22" s="20">
         <v>45323</v>
       </c>
       <c r="C22" s="17"/>
@@ -2011,9 +1984,9 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="42">
+        <v>32</v>
+      </c>
+      <c r="B23" s="20">
         <v>45323</v>
       </c>
       <c r="C23" s="14"/>
@@ -2060,9 +2033,9 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="42">
+        <v>33</v>
+      </c>
+      <c r="B24" s="20">
         <v>45323</v>
       </c>
       <c r="C24" s="17"/>
@@ -2109,9 +2082,9 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="42">
+        <v>35</v>
+      </c>
+      <c r="B25" s="20">
         <v>45323</v>
       </c>
       <c r="C25" s="14"/>
@@ -2268,34 +2241,5 @@
   <pageSetup paperSize="9" scale="48" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>438150</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>371475</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/file/Tableau_de_synthèse_BTS_SIO_SISR_20232024_SAIDOMAR_Mourad.xlsx
+++ b/file/Tableau_de_synthèse_BTS_SIO_SISR_20232024_SAIDOMAR_Mourad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Portfolio\portfolio\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BABB52-BBAF-445B-829F-CD97CBD1D19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F3BA49-7882-434D-9BCE-836A0810AF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -128,9 +128,6 @@
     <t>NOM et prénom : SAIDOMAR Mourad</t>
   </si>
   <si>
-    <t>Centre de formation : BTS SIO</t>
-  </si>
-  <si>
     <t>Création d'une infrastructure réseau avec Packet Tracer</t>
   </si>
   <si>
@@ -165,6 +162,18 @@
   </si>
   <si>
     <t xml:space="preserve"> SISR</t>
+  </si>
+  <si>
+    <t>Projet 2 : Administration d’un domaine active directory</t>
+  </si>
+  <si>
+    <t>Projet 1 : Mise en œuvre d’un accès à Internet sécurisé via un proxy au sein d'un domaine ADDS</t>
+  </si>
+  <si>
+    <t>Préparation de postes clients</t>
+  </si>
+  <si>
+    <t>Centre de formation : Lycée Younoussa Bamana</t>
   </si>
 </sst>
 </file>
@@ -597,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -659,9 +668,48 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -686,44 +734,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1082,10 +1094,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ72"/>
+  <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="99" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="99" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1098,83 +1110,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="A5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1197,8 +1209,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1223,7 @@
       <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="43" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1254,16 +1266,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1305,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -1354,7 +1366,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1403,7 +1415,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1452,11 +1464,11 @@
         <v>24</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="18"/>
@@ -1501,7 +1513,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1550,9 +1562,9 @@
         <v>26</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="17"/>
@@ -1596,10 +1608,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="14"/>
@@ -1643,17 +1655,19 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="18"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1692,16 +1706,16 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="20">
-        <v>45078</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="18"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -1739,19 +1753,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="20">
-        <v>45078</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1790,7 +1802,7 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" s="20">
         <v>45078</v>
@@ -1799,7 +1811,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="18"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -1839,15 +1851,15 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B20" s="20">
         <v>45078</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="15"/>
       <c r="I20"/>
@@ -1886,17 +1898,19 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="20">
+        <v>45078</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="18"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1935,17 +1949,17 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" s="20">
-        <v>45323</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="14"/>
+        <v>45078</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="15"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1982,19 +1996,17 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="20">
-        <v>45323</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2033,17 +2045,17 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="20">
         <v>45323</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2082,7 +2094,7 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="20">
         <v>45323</v>
@@ -2129,15 +2141,19 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="20">
+        <v>45323</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2174,9 +2190,149 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="20">
+        <v>45323</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="15"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+    </row>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="20">
+        <v>45323</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="15"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+    </row>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+    </row>
     <row r="30" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2220,20 +2376,23 @@
     <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
